--- a/Tabela_Modelos/Tabela_Modelos.xlsx
+++ b/Tabela_Modelos/Tabela_Modelos.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2O\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1795C6B-4D59-4732-A4A6-4A9CB5AED59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Características_Modelos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Extração_Modelos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SSP370" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SSP585" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="COMPARAÇÕES" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="COMPARAÇÕES_XARRAY" sheetId="6" r:id="rId9"/>
+    <sheet name="Características_Modelos" sheetId="1" r:id="rId1"/>
+    <sheet name="Extração_Modelos" sheetId="2" r:id="rId2"/>
+    <sheet name="SSP370" sheetId="3" r:id="rId3"/>
+    <sheet name="SSP585" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>CMIP6 Model</t>
   </si>
@@ -166,13 +173,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">LINK: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://bb.cgd.ucar.edu/cesm/threads/query-about-cmip6-cesm2-model-under-ssp585.5718/</t>
     </r>
@@ -193,9 +201,6 @@
     <t xml:space="preserve">member_id           </t>
   </si>
   <si>
-    <t>Variáveis De Interesse</t>
-  </si>
-  <si>
     <t>Omon</t>
   </si>
   <si>
@@ -205,15 +210,6 @@
     <t>historical</t>
   </si>
   <si>
-    <t>lat, lon, lev, time</t>
-  </si>
-  <si>
-    <t>nav_lat, nav_lon, olevel, time</t>
-  </si>
-  <si>
-    <t>latitude, longitude, lev, time</t>
-  </si>
-  <si>
     <t>ssp370</t>
   </si>
   <si>
@@ -223,65 +219,105 @@
     <t>ssp585</t>
   </si>
   <si>
-    <t>Comparação_IPSL</t>
+    <t>CAMS-CSM1-0</t>
+  </si>
+  <si>
+    <t>CNRM-ESM2-1</t>
+  </si>
+  <si>
+    <t>ACCESS-CM2</t>
+  </si>
+  <si>
+    <t>r1i1p1f2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,7 +325,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -298,119 +334,129 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="4">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -421,89 +467,17 @@
     <xdr:ext cx="5743575" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6581775" cy="2981325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9667875" cy="3952875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -521,7 +495,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -711,29 +685,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="13.25"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="10" max="11" width="16.88"/>
-    <col customWidth="1" min="13" max="13" width="15.38"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="60">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -770,9 +747,9 @@
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
+    <row r="2" spans="1:25" ht="34.5" customHeight="1">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -808,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" ht="34.5" customHeight="1">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>22</v>
@@ -843,28 +820,28 @@
       <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-    </row>
-    <row r="4" ht="34.5" customHeight="1">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" ht="34.5" customHeight="1">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -884,32 +861,32 @@
       <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="5" ht="34.5" customHeight="1">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" ht="34.5" customHeight="1">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -945,22 +922,22 @@
         <v>36</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-    </row>
-    <row r="6" ht="34.5" customHeight="1">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" ht="34.5" customHeight="1">
       <c r="A6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>37</v>
@@ -996,401 +973,488 @@
         <v>43</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-    </row>
-    <row r="7" ht="34.5" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" ht="34.5" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="18" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="12" spans="1:25" ht="12.75">
+      <c r="B12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C12"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.13"/>
-    <col customWidth="1" min="6" max="6" width="23.13"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" ht="26.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" ht="26.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="26.25" customHeight="1">
-      <c r="A4" s="24" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="24.63"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="28.5">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:5" ht="29.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>58</v>
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>57</v>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="24.63"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>60</v>
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="7">
-      <c r="A7" s="28"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="28"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>